--- a/Results/Opinion/beda-PRICES.xlsx
+++ b/Results/Opinion/beda-PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -34,84 +34,30 @@
     <t>beat</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>complimentary</t>
-  </si>
-  <si>
     <t>deff</t>
   </si>
   <si>
-    <t>delish</t>
-  </si>
-  <si>
     <t>extensive</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>fishy</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
     <t>indian</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>mortal</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>only</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>plain</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
     <t>tasteless</t>
   </si>
   <si>
     <t>welll</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -119,9 +65,6 @@
   </si>
   <si>
     <t>baru</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -479,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +453,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,16 +481,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -555,16 +498,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -572,16 +515,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -589,16 +532,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -606,16 +549,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -623,16 +566,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -640,16 +583,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -657,322 +600,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/beda-PRICES.xlsx
+++ b/Results/Opinion/beda-PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -34,30 +34,78 @@
     <t>beat</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>complimentary</t>
+  </si>
+  <si>
     <t>deff</t>
   </si>
   <si>
+    <t>delish</t>
+  </si>
+  <si>
     <t>extensive</t>
   </si>
   <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>fishy</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
     <t>indian</t>
   </si>
   <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>mortal</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>only</t>
   </si>
   <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>pricey</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
     <t>tasteless</t>
   </si>
   <si>
     <t>welll</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
@@ -65,6 +113,9 @@
   </si>
   <si>
     <t>baru</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -422,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -470,10 +521,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,16 +532,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -498,16 +549,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -515,16 +566,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -532,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -549,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -566,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -583,16 +634,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -600,16 +651,288 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
